--- a/analysis/queryResults/FrequentItemsets_hpkpPolicyStatus20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_hpkpPolicyStatus20022018.xlsx
@@ -30,13 +30,7 @@
     <t>count</t>
   </si>
   <si>
-    <t>{hpkpPolicy.status=\absent\"}"</t>
-  </si>
-  <si>
     <t>{rating=A}</t>
-  </si>
-  <si>
-    <t>{rating=A,hpkpPolicy.status=\absent\"}"</t>
   </si>
   <si>
     <t>{rating=A+}</t>
@@ -45,49 +39,19 @@
     <t>{rating=B}</t>
   </si>
   <si>
-    <t>{rating=A+,hpkpPolicy.status=\absent\"}"</t>
-  </si>
-  <si>
-    <t>{rating=B,hpkpPolicy.status=\absent\"}"</t>
-  </si>
-  <si>
     <t>{rating=A-}</t>
-  </si>
-  <si>
-    <t>{rating=A-,hpkpPolicy.status=\absent\"}"</t>
   </si>
   <si>
     <t>{rating=F}</t>
   </si>
   <si>
-    <t>{rating=F,hpkpPolicy.status=\absent\"}"</t>
-  </si>
-  <si>
     <t>{rating=C}</t>
-  </si>
-  <si>
-    <t>{rating=C,hpkpPolicy.status=\absent\"}"</t>
   </si>
   <si>
     <t>{rating=T}</t>
   </si>
   <si>
-    <t>{rating=T,hpkpPolicy.status=\absent\"}"</t>
-  </si>
-  <si>
     <t>{hpkpPolicy.status=null}</t>
-  </si>
-  <si>
-    <t>{hpkpPolicy.status=\unknown\"}"</t>
-  </si>
-  <si>
-    <t>{hpkpPolicy.status=\valid\"}"</t>
-  </si>
-  <si>
-    <t>{rating=A+,hpkpPolicy.status=\valid\"}"</t>
-  </si>
-  <si>
-    <t>{rating=A,hpkpPolicy.status=\unknown\"}"</t>
   </si>
   <si>
     <t>{rating=A,hpkpPolicy.status=null}</t>
@@ -96,25 +60,10 @@
     <t>{rating=B,hpkpPolicy.status=null}</t>
   </si>
   <si>
-    <t>{rating=C,hpkpPolicy.status=\unknown\"}"</t>
-  </si>
-  <si>
     <t>{rating=A+,hpkpPolicy.status=null}</t>
   </si>
   <si>
-    <t>{rating=A-,hpkpPolicy.status=\unknown\"}"</t>
-  </si>
-  <si>
     <t>{rating=F,hpkpPolicy.status=null}</t>
-  </si>
-  <si>
-    <t>{rating=T,hpkpPolicy.status=\unknown\"}"</t>
-  </si>
-  <si>
-    <t>{rating=F,hpkpPolicy.status=\unknown\"}"</t>
-  </si>
-  <si>
-    <t>{rating=B,hpkpPolicy.status=\unknown\"}"</t>
   </si>
   <si>
     <t>{rating=C,hpkpPolicy.status=null}</t>
@@ -123,37 +72,88 @@
     <t>{rating=A-,hpkpPolicy.status=null}</t>
   </si>
   <si>
-    <t>{hpkpPolicy.status=\incomplete\"}"</t>
-  </si>
-  <si>
     <t>{rating=T,hpkpPolicy.status=null}</t>
   </si>
   <si>
-    <t>{rating=A,hpkpPolicy.status=\incomplete\"}"</t>
+    <t>{hpkpPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{rating=A,hpkpPolicy.status=\valid\"}"</t>
+    <t>{rating=A,hpkpPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{hpkpPolicy.status=\invalid\"}"</t>
+    <t>{rating=A+,hpkpPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{rating=A,hpkpPolicy.status=\invalid\"}"</t>
+    <t>{rating=B,hpkpPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{rating=T,hpkpPolicy.status=\valid\"}"</t>
+    <t>{rating=A-,hpkpPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{rating=A-,hpkpPolicy.status=\valid\"}"</t>
+    <t>{rating=F,hpkpPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{hpkpPolicy.status=\partial\"}"</t>
+    <t>{rating=C,hpkpPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{rating=A,hpkpPolicy.status=\partial\"}"</t>
+    <t>{rating=T,hpkpPolicy.status=absent}</t>
   </si>
   <si>
-    <t>{rating=B,hpkpPolicy.status=\incomplete\"}"</t>
+    <t>{hpkpPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{rating=A,hpkpPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{rating=C,hpkpPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{rating=A-,hpkpPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{rating=T,hpkpPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{rating=F,hpkpPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{rating=B,hpkpPolicy.status=unknown}</t>
+  </si>
+  <si>
+    <t>{hpkpPolicy.status=incomplete}</t>
+  </si>
+  <si>
+    <t>{rating=A,hpkpPolicy.status=incomplete}</t>
+  </si>
+  <si>
+    <t>{rating=B,hpkpPolicy.status=incomplete}</t>
+  </si>
+  <si>
+    <t>{hpkpPolicy.status=invalid}</t>
+  </si>
+  <si>
+    <t>{rating=A,hpkpPolicy.status=invalid}</t>
+  </si>
+  <si>
+    <t>{hpkpPolicy.status=valid}</t>
+  </si>
+  <si>
+    <t>{rating=A+,hpkpPolicy.status=valid}</t>
+  </si>
+  <si>
+    <t>{rating=A,hpkpPolicy.status=valid}</t>
+  </si>
+  <si>
+    <t>{rating=T,hpkpPolicy.status=valid}</t>
+  </si>
+  <si>
+    <t>{rating=A-,hpkpPolicy.status=valid}</t>
+  </si>
+  <si>
+    <t>{hpkpPolicy.status=partial}</t>
+  </si>
+  <si>
+    <t>{rating=A,hpkpPolicy.status=partial}</t>
   </si>
 </sst>
 </file>
@@ -753,6 +753,3831 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>HPKP Policy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Status Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_hpkpPolicyStat!$B$2,FrequentItemsets_hpkpPolicyStat!$B$17,FrequentItemsets_hpkpPolicyStat!$B$18,FrequentItemsets_hpkpPolicyStat!$B$19,FrequentItemsets_hpkpPolicyStat!$B$33,FrequentItemsets_hpkpPolicyStat!$B$37,FrequentItemsets_hpkpPolicyStat!$B$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>{hpkpPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{hpkpPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{hpkpPolicy.status=unknown}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{hpkpPolicy.status=valid}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{hpkpPolicy.status=incomplete}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{hpkpPolicy.status=invalid}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{hpkpPolicy.status=partial}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_hpkpPolicyStat!$C$2,FrequentItemsets_hpkpPolicyStat!$C$17,FrequentItemsets_hpkpPolicyStat!$C$18,FrequentItemsets_hpkpPolicyStat!$C$19,FrequentItemsets_hpkpPolicyStat!$C$33,FrequentItemsets_hpkpPolicyStat!$C$37,FrequentItemsets_hpkpPolicyStat!$C$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.947703735834734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.14580057474381E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.89773897955864E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1904787724339902E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7350756384536101E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.31985034972618E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.89773897955864E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1855091408"/>
+        <c:axId val="1855100112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1855091408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1855100112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1855100112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1855091408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>HPKP Policy Status Absent Rating Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_hpkpPolicyStat!$B$2,FrequentItemsets_hpkpPolicyStat!$B$4,FrequentItemsets_hpkpPolicyStat!$B$7,FrequentItemsets_hpkpPolicyStat!$B$8,FrequentItemsets_hpkpPolicyStat!$B$10,FrequentItemsets_hpkpPolicyStat!$B$12,FrequentItemsets_hpkpPolicyStat!$B$14,FrequentItemsets_hpkpPolicyStat!$B$16)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{hpkpPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,hpkpPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=A+,hpkpPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=B,hpkpPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=A-,hpkpPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=F,hpkpPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=C,hpkpPolicy.status=absent}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=T,hpkpPolicy.status=absent}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_hpkpPolicyStat!$C$2,FrequentItemsets_hpkpPolicyStat!$C$4,FrequentItemsets_hpkpPolicyStat!$C$7,FrequentItemsets_hpkpPolicyStat!$C$8,FrequentItemsets_hpkpPolicyStat!$C$10,FrequentItemsets_hpkpPolicyStat!$C$12,FrequentItemsets_hpkpPolicyStat!$C$14,FrequentItemsets_hpkpPolicyStat!$C$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.947703735834734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38072710513473901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13284172856910501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12927669034322001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3490755300113901E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5737136040774306E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8783278208534396E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6847042238247601E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1787318576"/>
+        <c:axId val="1787319120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1787318576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1787319120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1787319120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1787318576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>HPKP Policy Status Null Rating Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_hpkpPolicyStat!$B$17,FrequentItemsets_hpkpPolicyStat!$B$22,FrequentItemsets_hpkpPolicyStat!$B$23,FrequentItemsets_hpkpPolicyStat!$B$25,FrequentItemsets_hpkpPolicyStat!$B$27,FrequentItemsets_hpkpPolicyStat!$B$31,FrequentItemsets_hpkpPolicyStat!$B$32,FrequentItemsets_hpkpPolicyStat!$B$34)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{hpkpPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,hpkpPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=B,hpkpPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=A+,hpkpPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=F,hpkpPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=C,hpkpPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=A-,hpkpPolicy.status=null}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=T,hpkpPolicy.status=null}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_hpkpPolicyStat!$C$17,FrequentItemsets_hpkpPolicyStat!$C$22,FrequentItemsets_hpkpPolicyStat!$C$23,FrequentItemsets_hpkpPolicyStat!$C$25,FrequentItemsets_hpkpPolicyStat!$C$27,FrequentItemsets_hpkpPolicyStat!$C$31,FrequentItemsets_hpkpPolicyStat!$C$32,FrequentItemsets_hpkpPolicyStat!$C$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.14580057474381E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0863200130130699E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8799002331507899E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.68394512823293E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.53483706555333E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0061812069619902E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.77574147372987E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.49108062679607E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1787326736"/>
+        <c:axId val="1787319664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1787326736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1787319664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1787319664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1787326736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>HPKP Policy Status Unknown Rating Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_hpkpPolicyStat!$B$18,FrequentItemsets_hpkpPolicyStat!$B$21,FrequentItemsets_hpkpPolicyStat!$B$24,FrequentItemsets_hpkpPolicyStat!$B$26,FrequentItemsets_hpkpPolicyStat!$B$28,FrequentItemsets_hpkpPolicyStat!$B$29,FrequentItemsets_hpkpPolicyStat!$B$30)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>{hpkpPolicy.status=unknown}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,hpkpPolicy.status=unknown}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=C,hpkpPolicy.status=unknown}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=A-,hpkpPolicy.status=unknown}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=T,hpkpPolicy.status=unknown}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=F,hpkpPolicy.status=unknown}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=B,hpkpPolicy.status=unknown}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_hpkpPolicyStat!$C$18,FrequentItemsets_hpkpPolicyStat!$C$21,FrequentItemsets_hpkpPolicyStat!$C$24,FrequentItemsets_hpkpPolicyStat!$C$26,FrequentItemsets_hpkpPolicyStat!$C$28,FrequentItemsets_hpkpPolicyStat!$C$29,FrequentItemsets_hpkpPolicyStat!$C$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.89773897955864E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7911944911348502E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7652767987854502E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6432792929566799E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3315078891720398E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25017621861953E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1552892696416002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1787317488"/>
+        <c:axId val="1787320208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1787317488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1787320208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1787320208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1787317488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>145883</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>90235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495801</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1018,8 +4843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" activeCellId="13" sqref="B18 C18 B21 C21 B24 C24 B26 C26 B28 C28 B29 C29 B30 C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +4868,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>0.947703735834734</v>
@@ -1057,7 +4882,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0.39661389144933001</v>
@@ -1071,7 +4896,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>0.38072710513473901</v>
@@ -1085,7 +4910,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0.14326573767825199</v>
@@ -1099,7 +4924,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0.13658298541451999</v>
@@ -1113,7 +4938,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>0.13284172856910501</v>
@@ -1127,7 +4952,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>0.12927669034322001</v>
@@ -1141,7 +4966,7 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>9.8235102749010497E-2</v>
@@ -1155,7 +4980,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>9.3490755300113901E-2</v>
@@ -1169,7 +4994,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>9.0657702109201294E-2</v>
@@ -1183,7 +5008,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <v>8.5737136040774306E-2</v>
@@ -1197,7 +5022,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>8.3703844276961495E-2</v>
@@ -1211,7 +5036,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>7.8783278208534396E-2</v>
@@ -1225,7 +5050,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>5.0940736322724098E-2</v>
@@ -1239,7 +5064,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>4.6847042238247601E-2</v>
@@ -1253,7 +5078,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4">
         <v>2.14580057474381E-2</v>
@@ -1267,7 +5092,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3">
         <v>1.89773897955864E-2</v>
@@ -1281,7 +5106,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>9.1904787724339902E-3</v>
@@ -1295,7 +5120,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>7.6858428672124902E-3</v>
@@ -1309,7 +5134,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3">
         <v>6.7911944911348502E-3</v>
@@ -1323,7 +5148,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4">
         <v>6.0863200130130699E-3</v>
@@ -1337,7 +5162,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4">
         <v>4.8799002331507899E-3</v>
@@ -1351,7 +5176,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3">
         <v>2.7652767987854502E-3</v>
@@ -1365,7 +5190,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4">
         <v>2.68394512823293E-3</v>
@@ -1379,7 +5204,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3">
         <v>2.6432792929566799E-3</v>
@@ -1393,7 +5218,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4">
         <v>2.53483706555333E-3</v>
@@ -1407,7 +5232,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3">
         <v>2.3315078891720398E-3</v>
@@ -1421,7 +5246,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
         <v>2.25017621861953E-3</v>
@@ -1435,7 +5260,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="3">
         <v>2.1552892696416002E-3</v>
@@ -1449,7 +5274,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C31" s="4">
         <v>2.0061812069619902E-3</v>
@@ -1463,7 +5288,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C32" s="4">
         <v>1.77574147372987E-3</v>
@@ -1477,7 +5302,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="6">
         <v>1.7350756384536101E-3</v>
@@ -1491,7 +5316,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C34" s="4">
         <v>1.49108062679607E-3</v>
@@ -1505,7 +5330,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="6">
         <v>1.3284172856910499E-3</v>
@@ -1519,7 +5344,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2">
         <v>9.8953532505557701E-4</v>
@@ -1533,7 +5358,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>7.31985034972618E-4</v>
@@ -1547,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
         <v>5.2865585859133502E-4</v>
@@ -1561,7 +5386,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2">
         <v>2.1688445480670199E-4</v>
@@ -1575,7 +5400,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2">
         <v>2.0332917638128301E-4</v>
@@ -1589,7 +5414,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="5">
         <v>1.89773897955864E-4</v>
@@ -1603,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="5">
         <v>1.6266334110502599E-4</v>
@@ -1617,7 +5442,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C43" s="6">
         <v>1.3555278425418901E-4</v>
@@ -1628,5 +5453,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis/queryResults/FrequentItemsets_hpkpPolicyStatus20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_hpkpPolicyStatus20022018.xlsx
@@ -977,11 +977,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1855091408"/>
-        <c:axId val="1855100112"/>
+        <c:axId val="-1482742976"/>
+        <c:axId val="-1482743520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1855091408"/>
+        <c:axId val="-1482742976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1855100112"/>
+        <c:crossAx val="-1482743520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1032,7 +1032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1855100112"/>
+        <c:axId val="-1482743520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1855091408"/>
+        <c:crossAx val="-1482742976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1127,7 +1127,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1362,11 +1362,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1787318576"/>
-        <c:axId val="1787319120"/>
+        <c:axId val="-1482744608"/>
+        <c:axId val="-1482739712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1787318576"/>
+        <c:axId val="-1482744608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787319120"/>
+        <c:crossAx val="-1482739712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1417,7 +1417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1787319120"/>
+        <c:axId val="-1482739712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787318576"/>
+        <c:crossAx val="-1482744608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1512,7 +1512,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1747,11 +1747,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1787326736"/>
-        <c:axId val="1787319664"/>
+        <c:axId val="-1482745152"/>
+        <c:axId val="-1482744064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1787326736"/>
+        <c:axId val="-1482745152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787319664"/>
+        <c:crossAx val="-1482744064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1802,7 +1802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1787319664"/>
+        <c:axId val="-1482744064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787326736"/>
+        <c:crossAx val="-1482745152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1897,7 +1897,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2126,11 +2126,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1787317488"/>
-        <c:axId val="1787320208"/>
+        <c:axId val="-1426903184"/>
+        <c:axId val="-1426902640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1787317488"/>
+        <c:axId val="-1426903184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,7 +2173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787320208"/>
+        <c:crossAx val="-1426902640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2181,7 +2181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1787320208"/>
+        <c:axId val="-1426902640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787317488"/>
+        <c:crossAx val="-1426903184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2276,7 +2276,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4843,7 +4843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" activeCellId="13" sqref="B18 C18 B21 C21 B24 C24 B26 C26 B28 C28 B29 C29 B30 C30"/>
     </sheetView>
   </sheetViews>
